--- a/biology/Zoologie/Boulengerula_uluguruensis/Boulengerula_uluguruensis.xlsx
+++ b/biology/Zoologie/Boulengerula_uluguruensis/Boulengerula_uluguruensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boulengerula uluguruensis est une espèce de gymnophiones de la famille des Herpelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boulengerula uluguruensis est une espèce de gymnophiones de la famille des Herpelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'Est de la Tanzanie. Elle se rencontre généralement au-dessus de 400 m d'altitude dans les monts Nguu, Nguru et Uluguru[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'Est de la Tanzanie. Elle se rencontre généralement au-dessus de 400 m d'altitude dans les monts Nguu, Nguru et Uluguru.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de uluguru et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barbour &amp; Loveridge, 1928 : A comparative study of the herpetological faunae of the Uluguru and Usambara Mountains, Tanganyika Territory with descriptions of new species. Memoirs of the Museum of Comparative Zoology, Cambridge, Massachusetts, vol. 50, no 2, p. 87-265 (texte intégral).</t>
         </is>
